--- a/teaching/pols-209/data/calories.xlsx
+++ b/teaching/pols-209/data/calories.xlsx
@@ -12,105 +12,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>submit_time</t>
+    <t>date</t>
   </si>
   <si>
-    <t>hours_early</t>
+    <t>weight</t>
   </si>
   <si>
-    <t>45.678889 hours</t>
+    <t>calories_in</t>
   </si>
   <si>
-    <t>37.967778 hours</t>
+    <t>calories_out</t>
   </si>
   <si>
-    <t>37.553611 hours</t>
+    <t>weight_change</t>
   </si>
   <si>
-    <t>24.884167 hours</t>
-  </si>
-  <si>
-    <t>24.061667 hours</t>
-  </si>
-  <si>
-    <t>21.826111 hours</t>
-  </si>
-  <si>
-    <t>20.940278 hours</t>
-  </si>
-  <si>
-    <t>20.314722 hours</t>
-  </si>
-  <si>
-    <t>19.495556 hours</t>
-  </si>
-  <si>
-    <t>17.475833 hours</t>
-  </si>
-  <si>
-    <t>16.419444 hours</t>
-  </si>
-  <si>
-    <t>16.316667 hours</t>
-  </si>
-  <si>
-    <t>16.178056 hours</t>
-  </si>
-  <si>
-    <t>16.065556 hours</t>
-  </si>
-  <si>
-    <t>15.551111 hours</t>
-  </si>
-  <si>
-    <t>15.332778 hours</t>
-  </si>
-  <si>
-    <t>15.098056 hours</t>
-  </si>
-  <si>
-    <t>14.701667 hours</t>
-  </si>
-  <si>
-    <t>14.410833 hours</t>
-  </si>
-  <si>
-    <t>14.375833 hours</t>
-  </si>
-  <si>
-    <t>14.321944 hours</t>
-  </si>
-  <si>
-    <t>14.167222 hours</t>
-  </si>
-  <si>
-    <t>13.405833 hours</t>
-  </si>
-  <si>
-    <t>13.340278 hours</t>
-  </si>
-  <si>
-    <t>13.183056 hours</t>
-  </si>
-  <si>
-    <t>12.631111 hours</t>
-  </si>
-  <si>
-    <t>12.330556 hours</t>
-  </si>
-  <si>
-    <t>12.173611 hours</t>
-  </si>
-  <si>
-    <t>11.203889 hours</t>
-  </si>
-  <si>
-    <t>11.134167 hours</t>
-  </si>
-  <si>
-    <t> 8.684167 hours</t>
+    <t>calorie_deficit</t>
   </si>
 </sst>
 </file>
@@ -457,253 +376,349 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>42760.35</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
+        <v>42744.75</v>
+      </c>
+      <c r="B2" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2629</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3970</v>
+      </c>
+      <c r="E2"/>
+      <c r="F2" t="n">
+        <v>1341</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>42760.67</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
+        <v>42745.75</v>
+      </c>
+      <c r="B3" t="n">
+        <v>196.6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2796</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3198</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.0999999999999943</v>
+      </c>
+      <c r="F3" t="n">
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>42760.69</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
+        <v>42746.75</v>
+      </c>
+      <c r="B4" t="n">
+        <v>195.9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3896</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-0.699999999999989</v>
+      </c>
+      <c r="F4" t="n">
+        <v>722</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>42761.21</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
+        <v>42747.75</v>
+      </c>
+      <c r="B5" t="n">
+        <v>196</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2811</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3306</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.0999999999999943</v>
+      </c>
+      <c r="F5" t="n">
+        <v>495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>42761.25</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
+        <v>42748.75</v>
+      </c>
+      <c r="B6" t="n">
+        <v>196.8</v>
+      </c>
+      <c r="C6" t="n">
+        <v>3371</v>
+      </c>
+      <c r="D6" t="n">
+        <v>4033</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.800000000000011</v>
+      </c>
+      <c r="F6" t="n">
+        <v>662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>42761.34</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
+        <v>42749.75</v>
+      </c>
+      <c r="B7"/>
+      <c r="C7" t="n">
+        <v>1914</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2990</v>
+      </c>
+      <c r="E7"/>
+      <c r="F7" t="n">
+        <v>1076</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>42761.38</v>
-      </c>
-      <c r="B8" t="s">
-        <v>8</v>
+        <v>42750.75</v>
+      </c>
+      <c r="B8" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2830</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3767</v>
+      </c>
+      <c r="E8"/>
+      <c r="F8" t="n">
+        <v>937</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>42761.40</v>
-      </c>
-      <c r="B9" t="s">
-        <v>9</v>
+        <v>42751.75</v>
+      </c>
+      <c r="B9" t="n">
+        <v>196.9</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2630</v>
+      </c>
+      <c r="D9" t="n">
+        <v>3452</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>822</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>42761.44</v>
-      </c>
-      <c r="B10" t="s">
-        <v>10</v>
+        <v>42752.75</v>
+      </c>
+      <c r="B10" t="n">
+        <v>195.8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2600</v>
+      </c>
+      <c r="D10" t="n">
+        <v>3678</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.09999999999999</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1078</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>42761.52</v>
-      </c>
-      <c r="B11" t="s">
-        <v>11</v>
+        <v>42753.75</v>
+      </c>
+      <c r="B11" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2708</v>
+      </c>
+      <c r="D11" t="n">
+        <v>3646</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-0.300000000000011</v>
+      </c>
+      <c r="F11" t="n">
+        <v>938</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>42761.57</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
+        <v>42754.75</v>
+      </c>
+      <c r="B12" t="n">
+        <v>194.5</v>
+      </c>
+      <c r="C12" t="n">
+        <v>3081</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3625</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1</v>
+      </c>
+      <c r="F12" t="n">
+        <v>544</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>42761.57</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
+        <v>42755.75</v>
+      </c>
+      <c r="B13" t="n">
+        <v>195.4</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2124</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2693</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.900000000000006</v>
+      </c>
+      <c r="F13" t="n">
+        <v>569</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>42761.58</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
+        <v>42756.75</v>
+      </c>
+      <c r="B14" t="n">
+        <v>196.7</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2629</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3339</v>
+      </c>
+      <c r="E14" t="n">
+        <v>1.29999999999998</v>
+      </c>
+      <c r="F14" t="n">
+        <v>710</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>42761.58</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
+        <v>42757.75</v>
+      </c>
+      <c r="B15" t="n">
+        <v>195.5</v>
+      </c>
+      <c r="C15" t="n">
+        <v>3181</v>
+      </c>
+      <c r="D15" t="n">
+        <v>4451</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.19999999999999</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1270</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>42761.60</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
+        <v>42758.75</v>
+      </c>
+      <c r="B16" t="n">
+        <v>195</v>
+      </c>
+      <c r="C16" t="n">
+        <v>3347</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3973</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F16" t="n">
+        <v>626</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>42761.61</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
+        <v>42759.75</v>
+      </c>
+      <c r="B17" t="n">
+        <v>195.3</v>
+      </c>
+      <c r="C17" t="n">
+        <v>3157</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3958</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.300000000000011</v>
+      </c>
+      <c r="F17" t="n">
+        <v>801</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>42761.62</v>
-      </c>
-      <c r="B18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>42761.64</v>
-      </c>
-      <c r="B19" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>42761.65</v>
-      </c>
-      <c r="B20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>42761.65</v>
-      </c>
-      <c r="B21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>42761.65</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>42761.66</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>42761.69</v>
-      </c>
-      <c r="B24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>42761.69</v>
-      </c>
-      <c r="B25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>42761.70</v>
-      </c>
-      <c r="B26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>42761.72</v>
-      </c>
-      <c r="B27" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>42761.74</v>
-      </c>
-      <c r="B28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>42761.74</v>
-      </c>
-      <c r="B29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>42761.78</v>
-      </c>
-      <c r="B30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>42761.79</v>
-      </c>
-      <c r="B31" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>42761.89</v>
-      </c>
-      <c r="B32" t="s">
-        <v>32</v>
+        <v>42760.75</v>
+      </c>
+      <c r="B18" t="n">
+        <v>194.8</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2688</v>
+      </c>
+      <c r="D18" t="n">
+        <v>3469</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="F18" t="n">
+        <v>781</v>
       </c>
     </row>
   </sheetData>
